--- a/java-advance.xlsx
+++ b/java-advance.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORM" sheetId="1" r:id="rId1"/>
+    <sheet name="Annotaions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ORM</t>
   </si>
@@ -65,24 +66,168 @@
     <t xml:space="preserve">JPA là tập các giao diện (interfaces), qui chuẩn, định nghĩa. còn Hibernate thực hiện cài đặt (implements) các giao diện đó, định nghĩa đó.
 </t>
   </si>
+  <si>
+    <t>@OneToOne</t>
+  </si>
+  <si>
+    <t>@OneToMany</t>
+  </si>
+  <si>
+    <t>@ManyToOne</t>
+  </si>
+  <si>
+    <t>Khi một bản ghi trong bảng chỉ liên quan đến một bản ghi trong bảng khác và ngược lại, chúng ta nói rằng đó là mối quan hệ 1-1. Mối quan hệ này có thể được tạo bằng cách sử dụng các ràng buộc Khóa chính-Khóa ngoài duy nhất</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Quan hệ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> loại </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quan hệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> phổ biến nhất. Trong mối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quan hệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> này, một bản ghi trong bảng có </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> có </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nhiều</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> bản ghi phù hợp trong bảng khác, nhưng một bản ghi trong bảng thứ hai chỉ có một bản ghi phù hợp trong bảng đầu tiên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngược lại với quan hệ  1-n</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo mối quan hệ 1-1 giữa hai bảng </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -99,14 +244,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +280,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,61 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -213,33 +387,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -251,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,20 +598,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,26 +635,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +659,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,21 +693,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,134 +716,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,10 +853,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1026,6 +1186,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4027805</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="One-to-One Relationship in JPA | Baeldung"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="2019935"/>
+          <a:ext cx="3903980" cy="1285240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4781550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Code ví dụ Hibernate One To Many (@OneToMany, @ManyToOne)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="1905000"/>
+          <a:ext cx="4343400" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1286,7 +1535,7 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A38" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -1300,65 +1549,125 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="315" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="21" spans="2:7">
-      <c r="B3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="24" ht="21" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" ht="189" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" ht="31" customHeight="1"/>
     <row r="40" ht="250" customHeight="1" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" ht="105" spans="2:2">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="62.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="46.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="93.75" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
